--- a/secure/26P-Medonita.xlsx
+++ b/secure/26P-Medonita.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Medonita-699145</t>
+    <t>26P-Medonita-656075</t>
   </si>
   <si>
-    <t>26P-Medonita-218919</t>
+    <t>26P-Medonita-829160</t>
   </si>
   <si>
-    <t>26P-Medonita-976167</t>
+    <t>26P-Medonita-647292</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F0107854"/>
+        <fgColor rgb="Febc09c0"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:VT503"/>
+  <dimension ref="A1:XP503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -859,14 +859,11 @@
       </c>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="1:592" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>-0.732</v>
       </c>
       <c r="M69" s="4"/>
-      <c r="VT69" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
@@ -994,11 +991,14 @@
       </c>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:281" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>-0.644</v>
       </c>
       <c r="M91" s="4"/>
+      <c r="JU91" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
@@ -2170,11 +2170,14 @@
       </c>
       <c r="M286" s="4"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>0.14</v>
       </c>
       <c r="M287" s="4"/>
+      <c r="DG287" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
@@ -2428,14 +2431,11 @@
       </c>
       <c r="M329" s="4"/>
     </row>
-    <row r="330" spans="1:434" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>0.312</v>
       </c>
       <c r="M330" s="4"/>
-      <c r="PR330" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
@@ -2659,14 +2659,11 @@
       </c>
       <c r="M367" s="4"/>
     </row>
-    <row r="368" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>0.464</v>
       </c>
       <c r="M368" s="4"/>
-      <c r="JE368" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
@@ -2752,11 +2749,14 @@
       </c>
       <c r="M382" s="4"/>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:640" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>0.524</v>
       </c>
       <c r="M383" s="4"/>
+      <c r="XP383" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
